--- a/documentation/Sound-Asset-List.xlsx
+++ b/documentation/Sound-Asset-List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meatb\Desktop\Repos\Interactive Audio\InteractiveAudioProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meatb\Desktop\Repos\Interactive Audio\InteractiveAudioProject\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Sound Name</t>
   </si>
@@ -47,18 +47,9 @@
     <t>Music</t>
   </si>
   <si>
-    <t>IGME671</t>
-  </si>
-  <si>
     <t>Andy Ong</t>
   </si>
   <si>
-    <t>Button Hover</t>
-  </si>
-  <si>
-    <t>Button Click</t>
-  </si>
-  <si>
     <t>glassy-sounding, high to low pitch curve, alerts user they clicked a button</t>
   </si>
   <si>
@@ -71,42 +62,15 @@
     <t>whoosh noise, similar frequency throughout sound but increases a bit, alerts user they are hovering an option</t>
   </si>
   <si>
-    <t>Beach waves</t>
-  </si>
-  <si>
     <t>crashing waves on the beach, relaxing mood, will be used as background ambience for interface and even game(maybe)</t>
   </si>
   <si>
-    <t>Walking on sand / gravel</t>
-  </si>
-  <si>
     <t>whenever player assets move, they will be making a seamless sand moving sound, sound of crab walking on beach(not realistic)</t>
   </si>
   <si>
-    <t>Pushing seashells / movable objects</t>
-  </si>
-  <si>
-    <t>Button activated</t>
-  </si>
-  <si>
-    <t>Gate opened</t>
-  </si>
-  <si>
-    <t>Level complete</t>
-  </si>
-  <si>
     <t>bright sounding artificial excitement noise, sound is played when crab enters ungated hole and progresses to next level</t>
   </si>
   <si>
-    <t>Gate closed</t>
-  </si>
-  <si>
-    <t>sounds like a metal gate unlocking or moving, will be played when player opens the gate on top of the exit</t>
-  </si>
-  <si>
-    <t>sounds like a metal gate unlocking or moving but will sound pitched down, will be played gate is opened, but then closes</t>
-  </si>
-  <si>
     <t>a very clear click sound will be played when button is pressed</t>
   </si>
   <si>
@@ -117,6 +81,54 @@
   </si>
   <si>
     <t>if waves feel inadequate for the mood of the game, this will be made; will sound cartoony due to theme of game -- short seamless music played on xylophone(?)</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Crustacean Conundrum</t>
+  </si>
+  <si>
+    <t>button-hover</t>
+  </si>
+  <si>
+    <t>button-click</t>
+  </si>
+  <si>
+    <t>beach-waves</t>
+  </si>
+  <si>
+    <t>gravel-walk(footsteps1,2,3)</t>
+  </si>
+  <si>
+    <t>button-activated</t>
+  </si>
+  <si>
+    <t>gate-open</t>
+  </si>
+  <si>
+    <t>gate-close</t>
+  </si>
+  <si>
+    <t>level-complete</t>
+  </si>
+  <si>
+    <t>move-object</t>
+  </si>
+  <si>
+    <t>implemented in Unity</t>
+  </si>
+  <si>
+    <t>created in FMOD, not in Unity</t>
+  </si>
+  <si>
+    <t>sounds like a metal latch unlocking or moving but will sound pitched down, will be played gate is opened, but then closes</t>
+  </si>
+  <si>
+    <t>sounds like a metal latch unlocking or moving, will be played when player opens the gate on top of the exit</t>
   </si>
 </sst>
 </file>
@@ -471,21 +483,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="3" width="145.140625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -493,178 +507,214 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/Sound-Asset-List.xlsx
+++ b/documentation/Sound-Asset-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Sound Name</t>
   </si>
@@ -53,9 +53,6 @@
     <t>glassy-sounding, high to low pitch curve, alerts user they clicked a button</t>
   </si>
   <si>
-    <t>Description (Planned sounds)</t>
-  </si>
-  <si>
     <t>Asset List</t>
   </si>
   <si>
@@ -77,12 +74,6 @@
     <t>planned to sound like heavy object moving across sand/gravel, alerts user object is currently being pushed</t>
   </si>
   <si>
-    <t>Custom game music(?)</t>
-  </si>
-  <si>
-    <t>if waves feel inadequate for the mood of the game, this will be made; will sound cartoony due to theme of game -- short seamless music played on xylophone(?)</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -122,13 +113,28 @@
     <t>implemented in Unity</t>
   </si>
   <si>
-    <t>created in FMOD, not in Unity</t>
-  </si>
-  <si>
     <t>sounds like a metal latch unlocking or moving but will sound pitched down, will be played gate is opened, but then closes</t>
   </si>
   <si>
     <t>sounds like a metal latch unlocking or moving, will be played when player opens the gate on top of the exit</t>
+  </si>
+  <si>
+    <t>button-unactivated</t>
+  </si>
+  <si>
+    <t>background-music</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>melodic seamless loop of bright-sounding music</t>
+  </si>
+  <si>
+    <t>pitched down click sound will be played when button is unpressed</t>
+  </si>
+  <si>
+    <t>in Unity but incomplete</t>
   </si>
 </sst>
 </file>
@@ -197,12 +203,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,8 +502,8 @@
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
     <col min="3" max="3" width="145.140625" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="63" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -507,16 +514,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -527,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -544,7 +551,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -553,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -561,30 +568,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -592,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -609,16 +619,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -626,16 +636,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -643,16 +653,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -660,16 +670,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -677,20 +687,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -703,7 +727,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -713,7 +737,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Sound-Asset-List.xlsx
+++ b/documentation/Sound-Asset-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Sound Name</t>
   </si>
@@ -59,12 +59,6 @@
     <t>whoosh noise, similar frequency throughout sound but increases a bit, alerts user they are hovering an option</t>
   </si>
   <si>
-    <t>crashing waves on the beach, relaxing mood, will be used as background ambience for interface and even game(maybe)</t>
-  </si>
-  <si>
-    <t>whenever player assets move, they will be making a seamless sand moving sound, sound of crab walking on beach(not realistic)</t>
-  </si>
-  <si>
     <t>bright sounding artificial excitement noise, sound is played when crab enters ungated hole and progresses to next level</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>beach-waves</t>
   </si>
   <si>
-    <t>gravel-walk(footsteps1,2,3)</t>
-  </si>
-  <si>
     <t>button-activated</t>
   </si>
   <si>
@@ -135,6 +126,27 @@
   </si>
   <si>
     <t>in Unity but incomplete</t>
+  </si>
+  <si>
+    <t>wall collision</t>
+  </si>
+  <si>
+    <t>small bump noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crashing waves on the beach, relaxing mood, will be used as background ambience </t>
+  </si>
+  <si>
+    <t>gravel-walk-param2(footsteps1,2,3)</t>
+  </si>
+  <si>
+    <t>gravel-walk-param(footsteps1,2,3)</t>
+  </si>
+  <si>
+    <t>whenever player assets move, they will be making a seamless sand moving sound, sound of crab walking on beach(not realistic), meant for crab x</t>
+  </si>
+  <si>
+    <t>whenever player assets move, they will be making a seamless sand moving sound, sound of crab walking on beach(not realistic), meant for crab y</t>
   </si>
 </sst>
 </file>
@@ -492,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,16 +526,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -534,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -543,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -551,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -560,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -568,16 +580,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -585,16 +597,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -602,16 +614,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -619,16 +631,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -636,16 +648,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -653,16 +665,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -670,16 +682,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -687,16 +699,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
       <c r="D12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -704,23 +716,45 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -737,7 +771,7 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Sound-Asset-List.xlsx
+++ b/documentation/Sound-Asset-List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Sound Name</t>
   </si>
@@ -125,15 +125,9 @@
     <t>pitched down click sound will be played when button is unpressed</t>
   </si>
   <si>
-    <t>in Unity but incomplete</t>
-  </si>
-  <si>
     <t>wall collision</t>
   </si>
   <si>
-    <t>small bump noise</t>
-  </si>
-  <si>
     <t xml:space="preserve">crashing waves on the beach, relaxing mood, will be used as background ambience </t>
   </si>
   <si>
@@ -147,6 +141,9 @@
   </si>
   <si>
     <t>whenever player assets move, they will be making a seamless sand moving sound, sound of crab walking on beach(not realistic), meant for crab y</t>
+  </si>
+  <si>
+    <t>small bump noise with rock</t>
   </si>
 </sst>
 </file>
@@ -505,7 +502,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +580,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -614,10 +611,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -631,10 +628,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
@@ -674,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -691,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -747,10 +744,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
